--- a/3조_일정.xlsx
+++ b/3조_일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeje\Documents\Kubway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D047B48-9098-4C9A-A100-F302A3FFAA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B50D2-E7EA-407D-8986-06151E455D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21712" windowHeight="13267" xr2:uid="{6692EEA6-D6F7-4B35-9A83-0CD9BA00B6CF}"/>
+    <workbookView xWindow="2535" yWindow="450" windowWidth="21712" windowHeight="13268" xr2:uid="{6692EEA6-D6F7-4B35-9A83-0CD9BA00B6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>Kubway</t>
   </si>
@@ -219,15 +219,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>채현우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>우선순위 하위항목</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>팀원 전원(채현우9할)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 버튼 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,9 +836,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1231,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059F8DA4-827D-43DB-A11C-7AC6B89213E6}">
-  <dimension ref="A2:R29"/>
+  <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -1251,89 +1252,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.6">
-      <c r="A2" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
+      <c r="A2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="52" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="57" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58" t="s">
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="53" t="s">
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="26" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +1377,7 @@
       <c r="Q6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="60"/>
+      <c r="R6" s="59"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A7" s="10" t="s">
@@ -1388,8 +1389,8 @@
       <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="23">
         <v>1</v>
       </c>
@@ -1402,15 +1403,15 @@
       <c r="I7" s="25">
         <v>1</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="49"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A8" s="3"/>
@@ -1442,7 +1443,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="50"/>
+      <c r="R8" s="49"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A9" s="3"/>
@@ -1474,7 +1475,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="50"/>
+      <c r="R9" s="49"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
@@ -1506,7 +1507,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="50"/>
+      <c r="R10" s="49"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A11" s="3"/>
@@ -1538,7 +1539,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="50"/>
+      <c r="R11" s="49"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
@@ -1548,7 +1549,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1572,7 +1573,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="50"/>
+      <c r="R12" s="49"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="3"/>
@@ -1604,7 +1605,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="50"/>
+      <c r="R13" s="49"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
@@ -1619,17 +1620,17 @@
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="18">
         <v>1</v>
       </c>
       <c r="I14" s="19">
-        <f t="shared" ref="I14:I29" si="0">AVERAGE(F14:H14)</f>
-        <v>0.56666666666666665</v>
+        <f t="shared" ref="I14:I30" si="0">AVERAGE(F14:H14)</f>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
@@ -1639,7 +1640,7 @@
       <c r="O14" s="31"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="50" t="s">
+      <c r="R14" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1654,17 +1655,17 @@
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="18">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="18">
         <v>1</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
@@ -1674,7 +1675,7 @@
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="50" t="s">
+      <c r="R15" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1689,17 +1690,17 @@
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H16" s="18">
         <v>1</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
@@ -1709,7 +1710,7 @@
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="50" t="s">
+      <c r="R16" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1724,17 +1725,17 @@
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H17" s="18">
         <v>1</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
@@ -1744,7 +1745,7 @@
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="50" t="s">
+      <c r="R17" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1759,17 +1760,17 @@
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H18" s="18">
         <v>1</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
@@ -1779,7 +1780,7 @@
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="50" t="s">
+      <c r="R18" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1794,7 +1795,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="18">
         <v>0.5</v>
@@ -1804,7 +1805,7 @@
       </c>
       <c r="I19" s="19">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
@@ -1814,7 +1815,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="50" t="s">
+      <c r="R19" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1829,7 +1830,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="18">
         <v>0.2</v>
@@ -1839,7 +1840,7 @@
       </c>
       <c r="I20" s="19">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
@@ -1849,7 +1850,7 @@
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="50" t="s">
+      <c r="R20" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1864,7 +1865,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G21" s="18">
         <v>0.2</v>
@@ -1874,7 +1875,7 @@
       </c>
       <c r="I21" s="19">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
@@ -1884,7 +1885,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="50" t="s">
+      <c r="R21" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1899,7 +1900,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="18">
         <v>0.2</v>
@@ -1909,7 +1910,7 @@
       </c>
       <c r="I22" s="19">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="2"/>
@@ -1919,7 +1920,7 @@
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="50" t="s">
+      <c r="R22" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1933,28 +1934,28 @@
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="38">
-        <v>0</v>
-      </c>
-      <c r="G23" s="39">
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="38">
         <v>0.2</v>
       </c>
-      <c r="H23" s="39">
-        <v>1</v>
-      </c>
-      <c r="I23" s="40">
+      <c r="H23" s="38">
+        <v>1</v>
+      </c>
+      <c r="I23" s="39">
         <f t="shared" si="0"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
       <c r="Q23" s="37"/>
-      <c r="R23" s="50" t="s">
+      <c r="R23" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1968,7 +1969,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="17">
         <v>0</v>
@@ -1991,7 +1992,7 @@
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="50" t="s">
+      <c r="R24" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2008,27 +2009,29 @@
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="17">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G25" s="18">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="50"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="49" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A26" s="2"/>
@@ -2041,27 +2044,29 @@
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="17">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G26" s="18">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="50"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="49" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A27" s="2"/>
@@ -2069,104 +2074,139 @@
         <v>46</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="17">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G27" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="50"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="49" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H28" s="18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="50"/>
-    </row>
-    <row r="29" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A29" s="6" t="s">
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="49"/>
+    </row>
+    <row r="30" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="20">
-        <v>1</v>
-      </c>
-      <c r="G29" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="21">
-        <v>1</v>
-      </c>
-      <c r="I29" s="22">
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1</v>
+      </c>
+      <c r="I30" s="22">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="51" t="s">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="J30" s="32"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="50" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2185,7 +2225,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R29" r:id="rId1" xr:uid="{96A44CFE-7297-4DC3-AAE2-579ED5532AC8}"/>
+    <hyperlink ref="R30" r:id="rId1" xr:uid="{96A44CFE-7297-4DC3-AAE2-579ED5532AC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/3조_일정.xlsx
+++ b/3조_일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeje\Documents\Kubway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B50D2-E7EA-407D-8986-06151E455D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6896C6-37C1-4D7B-8923-15494BF7A82A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="450" windowWidth="21712" windowHeight="13268" xr2:uid="{6692EEA6-D6F7-4B35-9A83-0CD9BA00B6CF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{6692EEA6-D6F7-4B35-9A83-0CD9BA00B6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>Kubway</t>
   </si>
@@ -131,9 +131,6 @@
     <t>화면 구상</t>
   </si>
   <si>
-    <t>프로토타입</t>
-  </si>
-  <si>
     <t>채현우</t>
   </si>
   <si>
@@ -223,15 +220,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>팀원 전원(채현우9할)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>중복 버튼 처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이재원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원 전원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI &amp; UX 디자인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1232,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059F8DA4-827D-43DB-A11C-7AC6B89213E6}">
-  <dimension ref="A2:R30"/>
+  <dimension ref="A2:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -1275,7 +1276,7 @@
     </row>
     <row r="4" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -1549,7 +1550,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1578,10 +1579,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -1608,14 +1609,12 @@
       <c r="R13" s="49"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
@@ -1623,26 +1622,23 @@
         <v>1</v>
       </c>
       <c r="G14" s="18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H14" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f t="shared" ref="I14:I30" si="0">AVERAGE(F14:H14)</f>
-        <v>0.93333333333333324</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="R14" s="49"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="3"/>
@@ -1650,7 +1646,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -1658,26 +1654,23 @@
         <v>1</v>
       </c>
       <c r="G15" s="18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H15" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333324</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="R15" s="49"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="3"/>
@@ -1685,7 +1678,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -1693,26 +1686,23 @@
         <v>1</v>
       </c>
       <c r="G16" s="18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H16" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333324</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A17" s="3"/>
@@ -1720,7 +1710,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -1728,26 +1718,23 @@
         <v>1</v>
       </c>
       <c r="G17" s="18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333324</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="R17" s="49"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A18" s="3"/>
@@ -1755,7 +1742,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -1763,26 +1750,23 @@
         <v>1</v>
       </c>
       <c r="G18" s="18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="19">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333324</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="R18" s="49"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A19" s="3"/>
@@ -1790,7 +1774,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -1798,34 +1782,31 @@
         <v>1</v>
       </c>
       <c r="G19" s="18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="19">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="R19" s="49"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -1833,26 +1814,23 @@
         <v>1</v>
       </c>
       <c r="G20" s="18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="19">
-        <f t="shared" si="0"/>
-        <v>0.73333333333333339</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="R20" s="49"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A21" s="3"/>
@@ -1860,7 +1838,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -1868,121 +1846,117 @@
         <v>0.2</v>
       </c>
       <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <f>F21</f>
         <v>0.2</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="19">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666662</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="R21" s="49"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39">
+        <f t="shared" ref="I14:I22" si="0">AVERAGE(F22:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="49"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" ref="I23:I39" si="1">AVERAGE(F23:H23)</f>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1</v>
-      </c>
-      <c r="I22" s="19">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="H23" s="38">
-        <v>1</v>
-      </c>
-      <c r="I23" s="39">
-        <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="49" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H24" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="2"/>
@@ -1993,123 +1967,121 @@
       <c r="P24" s="31"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="17">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G25" s="18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H25" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <f t="shared" si="1"/>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="47"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="4"/>
       <c r="R25" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="17">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G26" s="18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H26" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I26" s="19">
-        <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <f t="shared" si="1"/>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="47"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="4"/>
       <c r="R26" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="17">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G27" s="18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H27" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I27" s="19">
-        <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <f t="shared" si="1"/>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="47"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="4"/>
       <c r="R27" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -2120,94 +2092,413 @@
         <v>0.8</v>
       </c>
       <c r="H28" s="18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I28" s="19">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="47"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H29" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="49"/>
-    </row>
-    <row r="30" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A30" s="6" t="s">
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="17">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="17">
+        <v>0</v>
+      </c>
+      <c r="G32" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="38">
+        <v>1</v>
+      </c>
+      <c r="I32" s="39">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="J32" s="35"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="17">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" si="1"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="1"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="I36" s="19">
+        <f t="shared" si="1"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="17">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="I37" s="19">
+        <f t="shared" si="1"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
+      <c r="I38" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="49"/>
+    </row>
+    <row r="39" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="20">
+        <v>1</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H39" s="21">
+        <v>1</v>
+      </c>
+      <c r="I39" s="22">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="J39" s="32"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="50" t="s">
         <v>50</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="20">
-        <v>1</v>
-      </c>
-      <c r="G30" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H30" s="21">
-        <v>1</v>
-      </c>
-      <c r="I30" s="22">
-        <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="J30" s="32"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="50" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2516,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R30" r:id="rId1" xr:uid="{96A44CFE-7297-4DC3-AAE2-579ED5532AC8}"/>
+    <hyperlink ref="R39" r:id="rId1" xr:uid="{96A44CFE-7297-4DC3-AAE2-579ED5532AC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
